--- a/result_images/smallData.xlsx
+++ b/result_images/smallData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19360" yWindow="9200" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="7640" yWindow="9980" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,16 @@
     <t>Img</t>
   </si>
   <si>
-    <t>1 Pragma</t>
+    <t>Serial</t>
   </si>
   <si>
-    <t>2 Pragma</t>
+    <t>1D, 2D, Binary Pragma</t>
   </si>
   <si>
-    <t>3 Pragma</t>
+    <t>2D</t>
   </si>
   <si>
-    <t>Serial</t>
+    <t>1D, 2D Pragma</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -378,16 +378,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -397,6 +397,9 @@
       <c r="B2" s="1">
         <v>68516.399999999994</v>
       </c>
+      <c r="C2" s="1">
+        <v>39524.800000000003</v>
+      </c>
       <c r="E2" s="1">
         <v>41157.4</v>
       </c>
@@ -408,6 +411,9 @@
       <c r="B3" s="1">
         <v>499660</v>
       </c>
+      <c r="C3" s="1">
+        <v>256308</v>
+      </c>
       <c r="E3">
         <v>272691</v>
       </c>
@@ -419,6 +425,9 @@
       <c r="B4">
         <v>880413</v>
       </c>
+      <c r="C4" s="1">
+        <v>449017</v>
+      </c>
       <c r="E4">
         <v>463039</v>
       </c>
@@ -429,6 +438,12 @@
       </c>
       <c r="B5" s="2">
         <v>2295230</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1141080</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1036030</v>
       </c>
       <c r="E5" s="3">
         <v>1114870</v>

--- a/result_images/smallData.xlsx
+++ b/result_images/smallData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="9980" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="12360" yWindow="3320" windowWidth="23300" windowHeight="12640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Img</t>
   </si>
@@ -43,12 +43,54 @@
   <si>
     <t>1D, 2D Pragma</t>
   </si>
+  <si>
+    <t>Parallelism</t>
+  </si>
+  <si>
+    <t>  Model Name: MacBook Pro</t>
+  </si>
+  <si>
+    <t>  Model Identifier: MacBookPro11,4</t>
+  </si>
+  <si>
+    <t>  Processor Name: Intel Core i7</t>
+  </si>
+  <si>
+    <t>  Processor Speed: 2.2 GHz</t>
+  </si>
+  <si>
+    <t>  Number of Processors: 1</t>
+  </si>
+  <si>
+    <t>  Total Number of Cores: 4</t>
+  </si>
+  <si>
+    <t>  L2 Cache (per Core): 256 KB</t>
+  </si>
+  <si>
+    <t>  L3 Cache: 6 MB</t>
+  </si>
+  <si>
+    <t>  Memory: 16 GB</t>
+  </si>
+  <si>
+    <t>  Boot ROM Version: MBP114.0177.B00</t>
+  </si>
+  <si>
+    <t>  SMC Version (system): 2.29f24</t>
+  </si>
+  <si>
+    <t>  Serial Number (system): C02SKF50G8WN</t>
+  </si>
+  <si>
+    <t>  Hardware UUID: FC584035-3D43-53B5-924E-FCE863A04DD6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,13 +104,25 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,11 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,6 +156,2139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Time vs. Image Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.685164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.880413</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.29523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.395248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.256308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.449017</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.14108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-998483600"/>
+        <c:axId val="-1001960256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-998483600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>s per Image (1k)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1001960256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1001960256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Execution Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-998483600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Parallelism vs. Image Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.733504027850868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.949451441234765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.960756496970048</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.011454061064956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-998447232"/>
+        <c:axId val="-998443472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-998447232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>s per Image (1k)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-998443472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-998443472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:t>Ts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+                  <a:t> / Tp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-998447232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,13 +2554,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -395,13 +2590,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>68516.399999999994</v>
+        <v>0.685164</v>
       </c>
       <c r="C2" s="1">
-        <v>39524.800000000003</v>
+        <v>0.39524799999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.37363800000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>41157.4</v>
+        <v>0.411574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -409,13 +2607,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>499660</v>
+        <v>0.49965999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>256308</v>
+        <v>0.25630799999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.25872699999999998</v>
       </c>
       <c r="E3">
-        <v>272691</v>
+        <v>0.27269100000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -423,13 +2624,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>880413</v>
+        <v>0.880413</v>
       </c>
       <c r="C4" s="1">
-        <v>449017</v>
+        <v>0.449017</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.441131</v>
       </c>
       <c r="E4">
-        <v>463039</v>
+        <v>0.46303899999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -437,19 +2641,171 @@
         <v>42</v>
       </c>
       <c r="B5" s="2">
-        <v>2295230</v>
+        <v>2.2952300000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>1141080</v>
+        <v>1.1410800000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>1036030</v>
+        <v>1.03603</v>
       </c>
       <c r="E5" s="3">
-        <v>1114870</v>
+        <v>1.11487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.685164</v>
+      </c>
+      <c r="C8">
+        <f>B8/C2</f>
+        <v>1.7335040278508684</v>
+      </c>
+      <c r="D8">
+        <f>B8/D2</f>
+        <v>1.8337642316894962</v>
+      </c>
+      <c r="E8">
+        <f>B8/E2</f>
+        <v>1.6647407270624481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.49965999999999999</v>
+      </c>
+      <c r="C9">
+        <f>B9/C3</f>
+        <v>1.9494514412347645</v>
+      </c>
+      <c r="D9">
+        <f>B9/D3</f>
+        <v>1.9312248045236873</v>
+      </c>
+      <c r="E9">
+        <f>B9/E3</f>
+        <v>1.8323303666054251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.880413</v>
+      </c>
+      <c r="C10">
+        <f>B10/C4</f>
+        <v>1.9607564969700479</v>
+      </c>
+      <c r="D10">
+        <f>B10/D4</f>
+        <v>1.995808501329537</v>
+      </c>
+      <c r="E10">
+        <f>B10/E4</f>
+        <v>1.9013797973820781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.2952300000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/C5</f>
+        <v>2.0114540610649558</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B11/D5</f>
+        <v>2.2154088202079092</v>
+      </c>
+      <c r="E11" s="2">
+        <f>B11/E5</f>
+        <v>2.0587422748840671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>